--- a/MappingBooks/MappingBook_L7-介接外部系統.xlsx
+++ b/MappingBooks/MappingBook_L7-介接外部系統.xlsx
@@ -1,31 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\MappingBooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8554EEB-47FD-42B8-9C1F-361C788430A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="60" windowWidth="11544" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="目錄" sheetId="1" r:id="rId1"/>
-    <sheet name="Ias39IntMethod" sheetId="2" r:id="rId2"/>
-    <sheet name="Ias39LoanCommit" sheetId="3" r:id="rId3"/>
-    <sheet name="Ias39LoanCommit(2)" sheetId="4" r:id="rId4"/>
+    <sheet name="目錄" sheetId="1" r:id="rId3"/>
+    <sheet name="Ias39IntMethod" sheetId="2" r:id="rId4"/>
+    <sheet name="Ias39LoanCommit" sheetId="3" r:id="rId5"/>
+    <sheet name="Ias39LoanCommit(2)" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="188">
-  <si>
-    <t>空白:待確認
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="240">
+  <si>
+    <t xml:space="preserve">空白:待確認
 1:新檔不需轉
 2:新檔資料匯入
 3:AS400資料匯入
@@ -33,7 +25,7 @@
 5:債務協商-帳務系統資料匯入</t>
   </si>
   <si>
-    <t>空白:未處理
+    <t xml:space="preserve">空白:未處理
 1:TABLE已建立
 2:程式撰寫中
 3:程式完成待測試
@@ -41,89 +33,101 @@
 5:測試完成</t>
   </si>
   <si>
-    <t>序號</t>
-  </si>
-  <si>
-    <t>TABLE NAME</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>狀態</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>利息法帳面資料檔</t>
-  </si>
-  <si>
-    <t>IAS39放款承諾明細檔</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Ias39IntMethod</t>
-  </si>
-  <si>
-    <t>串聯方式</t>
+    <t xml:space="preserve">序號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLE NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中文名稱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">種類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狀態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">備註</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利息法帳面資料檔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAS39放款承諾明細檔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ias39IntMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比對處理用 Raw SQL pre-Select append:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">串聯方式</t>
   </si>
   <si>
     <t xml:space="preserve">FROM "LN$LBVP"
  </t>
   </si>
   <si>
-    <t>篩選條件</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>SEQ</t>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>型態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>Table名稱</t>
-  </si>
-  <si>
-    <t>特殊處理</t>
-  </si>
-  <si>
-    <t>比對處理</t>
-  </si>
-  <si>
-    <t>YearMonth</t>
+    <t xml:space="preserve">比對處理用 ORDER BY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"YearMonth", "CustNo", "FacmNo", "BormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">篩選條件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比對處理用 Raw SQL Append:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欄位名稱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">型態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">長度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">備註說明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table名稱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊處理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比對處理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">YearMonth</t>
   </si>
   <si>
     <t xml:space="preserve">年月份            </t>
   </si>
   <si>
-    <t>Decimal</t>
-  </si>
-  <si>
-    <t>LN$LBVP</t>
-  </si>
-  <si>
-    <t>ADTYMT</t>
+    <t xml:space="preserve">Decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN$LBVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADTYMT</t>
   </si>
   <si>
     <t xml:space="preserve">N
@@ -138,13 +142,16 @@
 </t>
   </si>
   <si>
-    <t>CustNo</t>
-  </si>
-  <si>
-    <t>戶號</t>
-  </si>
-  <si>
-    <t>LMSACN</t>
+    <t xml:space="preserve">"LN$LBVP"."ADTYMT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戶號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMSACN</t>
   </si>
   <si>
     <t xml:space="preserve">戶號              </t>
@@ -154,13 +161,16 @@
 </t>
   </si>
   <si>
-    <t>FacmNo</t>
-  </si>
-  <si>
-    <t>額度編號</t>
-  </si>
-  <si>
-    <t>LMSAPN</t>
+    <t xml:space="preserve">"LN$LBVP"."LMSACN"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacmNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">額度編號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMSAPN</t>
   </si>
   <si>
     <t xml:space="preserve">額度              </t>
@@ -170,25 +180,31 @@
 </t>
   </si>
   <si>
-    <t>BormNo</t>
-  </si>
-  <si>
-    <t>撥款序號</t>
-  </si>
-  <si>
-    <t>LMSASQ</t>
+    <t xml:space="preserve">"LN$LBVP"."LMSAPN"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BormNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">撥款序號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMSASQ</t>
   </si>
   <si>
     <t xml:space="preserve">撥款              </t>
   </si>
   <si>
-    <t>Principal</t>
+    <t xml:space="preserve">"LN$LBVP"."LMSASQ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal</t>
   </si>
   <si>
     <t xml:space="preserve">本期本金餘額      </t>
   </si>
   <si>
-    <t>TRMLBL</t>
+    <t xml:space="preserve">TRMLBL</t>
   </si>
   <si>
     <t xml:space="preserve">D
@@ -203,125 +219,152 @@
 </t>
   </si>
   <si>
-    <t>BookValue</t>
+    <t xml:space="preserve">"LN$LBVP"."TRMLBL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BookValue</t>
   </si>
   <si>
     <t xml:space="preserve">本期帳面價值      </t>
   </si>
   <si>
-    <t>TRMLBV</t>
-  </si>
-  <si>
-    <t>AccumDPAmortized</t>
-  </si>
-  <si>
-    <t>本期累應攤銷折溢價</t>
-  </si>
-  <si>
-    <t>TRMASV</t>
-  </si>
-  <si>
-    <t>AccumDPunAmortized</t>
-  </si>
-  <si>
-    <t>本期累未攤銷折溢價</t>
-  </si>
-  <si>
-    <t>TRMANV</t>
-  </si>
-  <si>
-    <t>DPAmortized</t>
+    <t xml:space="preserve">TRMLBV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LN$LBVP"."TRMLBV"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccumDPAmortized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本期累應攤銷折溢價</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRMASV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LN$LBVP"."TRMASV"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccumDPunAmortized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本期累未攤銷折溢價</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRMANV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LN$LBVP"."TRMANV"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPAmortized</t>
   </si>
   <si>
     <t xml:space="preserve">本期折溢價攤銷數  </t>
   </si>
   <si>
-    <t>TRMUSV</t>
-  </si>
-  <si>
-    <t>CreateDate</t>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-  </si>
-  <si>
-    <t>建檔人員</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-  </si>
-  <si>
-    <t>Ias39LoanCommit</t>
+    <t xml:space="preserve">TRMUSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LN$LBVP"."TRMUSV"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建檔日期時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateEmpNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建檔人員</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastUpdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最後更新日期時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastUpdateEmpNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最後更新人員</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ias39LoanCommit</t>
   </si>
   <si>
     <t xml:space="preserve">FROM "LNWLCTP"
  </t>
   </si>
   <si>
-    <t>DataYm</t>
-  </si>
-  <si>
-    <t>年月份</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>固定為「當日西元月份」</t>
-  </si>
-  <si>
-    <t>LNWLCTP</t>
+    <t xml:space="preserve">"DataYm", "CustNo", "FacmNo", "ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataYm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年月份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECIMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">固定為「當日西元月份」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNWLCTP</t>
   </si>
   <si>
     <t xml:space="preserve">戶號          </t>
   </si>
   <si>
+    <t xml:space="preserve">"LNWLCTP"."LMSACN"</t>
+  </si>
+  <si>
     <t xml:space="preserve">額度          </t>
   </si>
   <si>
-    <t>ApplNo</t>
-  </si>
-  <si>
-    <t>核准號碼</t>
-  </si>
-  <si>
-    <t>APLNUM</t>
+    <t xml:space="preserve">"LNWLCTP"."LMSAPN"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApplNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核准號碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLNUM</t>
   </si>
   <si>
     <t xml:space="preserve">核准號碼      </t>
   </si>
   <si>
-    <t>ApproveDate</t>
-  </si>
-  <si>
-    <t>核准日期</t>
-  </si>
-  <si>
-    <t>DECIMALD</t>
-  </si>
-  <si>
-    <t>【對保日期】，若為空值時則取【准駁日期】</t>
-  </si>
-  <si>
-    <t>APLCSD</t>
+    <t xml:space="preserve">"LNWLCTP"."APLNUM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApproveDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核准日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECIMALD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【對保日期】，若為空值時則取【准駁日期】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLCSD</t>
   </si>
   <si>
     <t xml:space="preserve">對保日期      </t>
@@ -331,37 +374,46 @@
 </t>
   </si>
   <si>
-    <t>FirstDrawdownDate</t>
-  </si>
-  <si>
-    <t>初貸日期</t>
-  </si>
-  <si>
-    <t>APLFSD</t>
+    <t xml:space="preserve">"LNWLCTP"."APLCSD"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstDrawdownDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初貸日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLFSD</t>
   </si>
   <si>
     <t xml:space="preserve">首次撥款日    </t>
   </si>
   <si>
-    <t>MaturityDate</t>
-  </si>
-  <si>
-    <t>到期日</t>
-  </si>
-  <si>
-    <t>APLDLD</t>
+    <t xml:space="preserve">"LNWLCTP"."APLFSD"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaturityDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">到期日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLDLD</t>
   </si>
   <si>
     <t xml:space="preserve">額度到期日    </t>
   </si>
   <si>
-    <t>LoanTermYy</t>
-  </si>
-  <si>
-    <t>貸款期間年</t>
-  </si>
-  <si>
-    <t>APLYER</t>
+    <t xml:space="preserve">"LNWLCTP"."APLDLD"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoanTermYy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貸款期間年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLYER</t>
   </si>
   <si>
     <t xml:space="preserve">貸款期間－年  </t>
@@ -371,61 +423,76 @@
 </t>
   </si>
   <si>
-    <t>LoanTermMm</t>
-  </si>
-  <si>
-    <t>貸款期間月</t>
-  </si>
-  <si>
-    <t>APLMON</t>
+    <t xml:space="preserve">"LNWLCTP"."APLYER"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoanTermMm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貸款期間月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLMON</t>
   </si>
   <si>
     <t xml:space="preserve">貸款期間－月  </t>
   </si>
   <si>
-    <t>LoanTermDd</t>
-  </si>
-  <si>
-    <t>貸款期間日</t>
-  </si>
-  <si>
-    <t>APLDAY</t>
+    <t xml:space="preserve">"LNWLCTP"."APLMON"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoanTermDd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貸款期間日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLDAY</t>
   </si>
   <si>
     <t xml:space="preserve">貸款期間－日  </t>
   </si>
   <si>
-    <t>UtilDeadline</t>
-  </si>
-  <si>
-    <t>動支期限</t>
-  </si>
-  <si>
-    <t>APLADT</t>
+    <t xml:space="preserve">"LNWLCTP"."APLDAY"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UtilDeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">動支期限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLADT</t>
   </si>
   <si>
     <t xml:space="preserve">動支期限      </t>
   </si>
   <si>
-    <t>RecycleDeadline</t>
-  </si>
-  <si>
-    <t>循環動用期限</t>
-  </si>
-  <si>
-    <t>APLRDT</t>
+    <t xml:space="preserve">"LNWLCTP"."APLADT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecycleDeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">循環動用期限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLRDT</t>
   </si>
   <si>
     <t xml:space="preserve">循環動用期限  </t>
   </si>
   <si>
-    <t>LineAmt</t>
-  </si>
-  <si>
-    <t>核准額度</t>
-  </si>
-  <si>
-    <t>APLPAM</t>
+    <t xml:space="preserve">"LNWLCTP"."APLRDT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LineAmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核准額度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLPAM</t>
   </si>
   <si>
     <t xml:space="preserve">核准額度      </t>
@@ -435,45 +502,54 @@
 </t>
   </si>
   <si>
-    <t>UtilBal</t>
-  </si>
-  <si>
-    <t>放款餘額</t>
-  </si>
-  <si>
-    <t>LMSLBL</t>
+    <t xml:space="preserve">"LNWLCTP"."APLPAM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UtilBal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">放款餘額</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMSLBL</t>
   </si>
   <si>
     <t xml:space="preserve">放款餘額      </t>
   </si>
   <si>
-    <t>AvblBal</t>
-  </si>
-  <si>
-    <t>可動用餘額</t>
-  </si>
-  <si>
-    <t>當【可循環動用】=1且【循環動用期限】&gt;=月底日→【可動用餘額】=【核准額度】-【放款餘額】
+    <t xml:space="preserve">"LNWLCTP"."LMSLBL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AvblBal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可動用餘額</t>
+  </si>
+  <si>
+    <t xml:space="preserve">當【可循環動用】=1且【循環動用期限】&gt;=月底日→【可動用餘額】=【核准額度】-【放款餘額】
 當【可循環動用】=0且【動支期限】&gt;=月底日→【可動用餘額】=【核准額度】-【已用額度】</t>
   </si>
   <si>
-    <t>W06AM4</t>
-  </si>
-  <si>
-    <t>已貸放尚有額度</t>
-  </si>
-  <si>
-    <t>RecycleCode</t>
-  </si>
-  <si>
-    <t>該筆額度是否可循環動用</t>
-  </si>
-  <si>
-    <t>0:非循環動用  
+    <t xml:space="preserve">W06AM4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已貸放尚有額度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCTP"."W06AM4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecycleCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">該筆額度是否可循環動用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:非循環動用  
 1:循環動用</t>
   </si>
   <si>
-    <t>APLRCD</t>
+    <t xml:space="preserve">APLRCD</t>
   </si>
   <si>
     <t xml:space="preserve">循環動用      </t>
@@ -483,17 +559,20 @@
 </t>
   </si>
   <si>
-    <t>IrrevocableFlag</t>
-  </si>
-  <si>
-    <t>該筆額度是否為不可撤銷</t>
-  </si>
-  <si>
-    <t>0:可撤銷  
+    <t xml:space="preserve">"LNWLCTP"."APLRCD"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IrrevocableFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">該筆額度是否為不可撤銷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:可撤銷  
 1:不可撤銷</t>
   </si>
   <si>
-    <t>APLILC</t>
+    <t xml:space="preserve">APLILC</t>
   </si>
   <si>
     <t xml:space="preserve">不可撤銷      </t>
@@ -503,65 +582,71 @@
 </t>
   </si>
   <si>
-    <t>AcBookCode</t>
-  </si>
-  <si>
-    <t>帳冊別</t>
-  </si>
-  <si>
-    <t>000:全公司</t>
-  </si>
-  <si>
-    <t>固定為「000」</t>
-  </si>
-  <si>
-    <t>AcSubBookCode</t>
-  </si>
-  <si>
-    <t>區隔帳冊</t>
-  </si>
-  <si>
-    <t>00A:統帳冊                           201:利變年金帳冊</t>
-  </si>
-  <si>
-    <t>FSCFLG</t>
+    <t xml:space="preserve">"LNWLCTP"."APLILC"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帳冊別</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000:全公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">固定為「000」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcSubBookCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">區隔帳冊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00A:統帳冊                           201:利變年金帳冊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSCFLG</t>
   </si>
   <si>
     <t xml:space="preserve">區分資金來源  </t>
   </si>
   <si>
-    <t xml:space="preserve">CASE WHEN "LNWLCTP"."FSCFLG" = '1' THEN '00A' WHEN "LNWLCTP"."FSCFLG" = '3' THEN '201' ELSE "LNWLCTP" . "FSCFLG" END </t>
-  </si>
-  <si>
-    <t>Ccf</t>
-  </si>
-  <si>
-    <t>信用風險轉換係數</t>
-  </si>
-  <si>
-    <t>以【貸款區間】判斷，轉換成”月數”，不足1個月者視為1個月；當【貸款期間起(月)】&lt;=月數&lt;=【貸款期間迄(月)】，取對應的【風險轉換係數(LCTCCF)】</t>
-  </si>
-  <si>
-    <t>LCTCCF</t>
-  </si>
-  <si>
-    <t>信用轉換係數％</t>
+    <t xml:space="preserve">CASE WHEN "LNWLCTP"."FSCFLG" = '1' THEN '00A' WHEN "LNWLCTP"."FSCFLG" = '3' THEN '201' ELSE "LNWLCTP"."FSCFLG" END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ccf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信用風險轉換係數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以【貸款區間】判斷，轉換成”月數”，不足1個月者視為1個月；當【貸款期間起(月)】&lt;=月數&lt;=【貸款期間迄(月)】，取對應的【風險轉換係數(LCTCCF)】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCTCCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信用轉換係數％</t>
   </si>
   <si>
     <t xml:space="preserve">5
 </t>
   </si>
   <si>
-    <t>ExpLimitAmt</t>
-  </si>
-  <si>
-    <t>表外曝險金額</t>
-  </si>
-  <si>
-    <t>可動用餘額 * 信用風險轉換係數</t>
-  </si>
-  <si>
-    <t>LOVAMT</t>
+    <t xml:space="preserve">"LNWLCTP"."LCTCCF"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpLimitAmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表外曝險金額</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可動用餘額 * 信用風險轉換係數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOVAMT</t>
   </si>
   <si>
     <t xml:space="preserve">金額          </t>
@@ -571,108 +656,169 @@
 </t>
   </si>
   <si>
-    <t>DbAcNoCode</t>
-  </si>
-  <si>
-    <t>借方：備忘分錄會計科目</t>
-  </si>
-  <si>
-    <t>CORDAC</t>
+    <t xml:space="preserve">"LNWLCTP"."LOVAMT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DbAcNoCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">借方：備忘分錄會計科目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORDAC</t>
   </si>
   <si>
     <t xml:space="preserve">借方科目      </t>
   </si>
   <si>
-    <t>CrAcNoCode</t>
-  </si>
-  <si>
-    <t>貸方：備忘分錄會計科目</t>
-  </si>
-  <si>
-    <t>CORCAC</t>
+    <t xml:space="preserve">"LNWLCTP"."CORDAC"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrAcNoCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貸方：備忘分錄會計科目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORCAC</t>
   </si>
   <si>
     <t xml:space="preserve">貸方科目      </t>
   </si>
   <si>
-    <t>DrawdownFg</t>
-  </si>
-  <si>
-    <t>已核撥記號</t>
-  </si>
-  <si>
-    <t>0:未核撥  
+    <t xml:space="preserve">"LNWLCTP"."CORCAC"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrawdownFg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已核撥記號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:未核撥  
 1:已核撥</t>
   </si>
   <si>
-    <t>固定為「0」</t>
+    <t xml:space="preserve">固定為「0」</t>
   </si>
   <si>
     <t xml:space="preserve">FROM "LNWLCAP"
  </t>
   </si>
   <si>
-    <t>LNWLCAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASE WHEN "LNWLCAP"."FSCFLG" = '1' THEN '00A' WHEN "LNWLCAP"."FSCFLG" = '3' THEN '201' ELSE "LNWLCAP" . "FSCFLG" END </t>
-  </si>
-  <si>
-    <t>固定為「1」</t>
+    <t xml:space="preserve">LNWLCAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."LMSACN"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."LMSAPN"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLNUM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLCSD"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLFSD"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLDLD"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLYER"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLMON"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLDAY"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLADT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLRDT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLPAM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."LMSLBL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."W06AM4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLRCD"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."APLILC"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE WHEN "LNWLCAP"."FSCFLG" = '1' THEN '00A' WHEN "LNWLCAP"."FSCFLG" = '3' THEN '201' ELSE "LNWLCAP"."FSCFLG" END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."LCTCCF"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LNWLCAP"."LOVAMT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">固定為「1」</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
-      <u/>
+      <u val="single"/>
       <sz val="12"/>
       <color indexed="48"/>
       <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C5C6FF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC5C6FF"/>
+        <fgColor rgb="C5C6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="47"/>
       </patternFill>
     </fill>
     <fill>
@@ -681,22 +827,37 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5D9F1"/>
+      <patternFill patternType="none">
+        <fgColor rgb="C5D9F1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
+        <fgColor rgb="C5D9F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE6F1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -705,748 +866,493 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="30" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="48" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+    <row r="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+    <row r="3">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="10">
         <f>HYPERLINK("#'Ias39IntMethod'!A1","Ias39IntMethod")</f>
-        <v>Ias39IntMethod</v>
-      </c>
-      <c r="C3" s="7" t="s">
+        <v/>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="10">
         <f>HYPERLINK("#'Ias39LoanCommit'!A1","Ias39LoanCommit")</f>
-        <v>Ias39LoanCommit</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v/>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="38" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="38" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="20" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="25" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="38" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="20" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="6" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="5">
         <f>HYPERLINK("#'目錄'!A1","回首頁")</f>
-        <v>回首頁</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+        <v/>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" ht="24" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="N3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>7</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
         <v>16</v>
@@ -1455,43 +1361,43 @@
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1">
         <v>16</v>
@@ -1500,43 +1406,43 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1">
         <v>16</v>
@@ -1545,43 +1451,43 @@
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1">
         <v>16</v>
@@ -1590,43 +1496,43 @@
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1">
         <v>16</v>
@@ -1635,53 +1541,53 @@
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1691,28 +1597,28 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1">
         <v>6</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1722,28 +1628,28 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1">
         <v>8</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1753,28 +1659,28 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1">
         <v>6</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1785,643 +1691,657 @@
       <c r="O17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="38" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="38" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="20" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="25" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="38" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="20" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="6" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="5">
         <f>HYPERLINK("#'目錄'!A1","回首頁")</f>
-        <v>回首頁</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+        <v/>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" ht="24" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="N3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1">
         <v>7</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1">
         <v>8</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1">
         <v>13</v>
@@ -2430,43 +2350,43 @@
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1">
         <v>13</v>
@@ -2475,43 +2395,43 @@
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="124.8" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1">
         <v>13</v>
@@ -2520,211 +2440,211 @@
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -2733,43 +2653,43 @@
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1">
         <v>13</v>
@@ -2778,176 +2698,176 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1">
         <v>11</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1">
         <v>11</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2957,28 +2877,28 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1">
         <v>6</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2988,26 +2908,26 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3017,28 +2937,28 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1">
         <v>6</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3049,643 +2969,657 @@
       <c r="O32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="38" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="38" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="20" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="25" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="38" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="20" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="6" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="38" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="38" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="5">
         <f>HYPERLINK("#'目錄'!A1","回首頁")</f>
-        <v>回首頁</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+        <v/>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" ht="24" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="N3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1">
         <v>7</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1">
         <v>8</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1">
         <v>13</v>
@@ -3694,43 +3628,43 @@
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1">
         <v>13</v>
@@ -3739,43 +3673,43 @@
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="124.8" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1">
         <v>13</v>
@@ -3784,211 +3718,211 @@
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -3997,43 +3931,43 @@
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1">
         <v>13</v>
@@ -4042,168 +3976,168 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1">
         <v>11</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1">
         <v>11</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4213,28 +4147,28 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1">
         <v>6</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -4244,26 +4178,26 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -4273,28 +4207,28 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1">
         <v>6</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -4305,12 +4239,11 @@
       <c r="O32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>